--- a/ideal_data.xlsx
+++ b/ideal_data.xlsx
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8101673279558718</v>
+        <v>0.8101673279558717</v>
       </c>
       <c r="G11" t="n">
         <v>0.7909109927252237</v>
@@ -2773,7 +2773,7 @@
         <v>1.207546809021132</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8459711848605059</v>
+        <v>0.8459711848605058</v>
       </c>
       <c r="H73" t="n">
         <v>34</v>
@@ -4050,7 +4050,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.9282559512697492</v>
+        <v>0.9282559512697491</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5813,7 +5813,7 @@
         <v>1.088789237840568</v>
       </c>
       <c r="G168" t="n">
-        <v>0.8988623291201067</v>
+        <v>0.8988623291201068</v>
       </c>
       <c r="H168" t="n">
         <v>36</v>
@@ -7698,7 +7698,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0.8751606469961534</v>
+        <v>0.8751606469961535</v>
       </c>
       <c r="G227" t="n">
         <v>0.8819828750011164</v>
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0.4861561797856434</v>
+        <v>0.4861561797856435</v>
       </c>
       <c r="G232" t="n">
         <v>0.8414657063396935</v>
@@ -8082,10 +8082,10 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0.8745538380954231</v>
+        <v>0.874553838095423</v>
       </c>
       <c r="G239" t="n">
-        <v>0.8928942654091599</v>
+        <v>0.8928942654091598</v>
       </c>
       <c r="H239" t="n">
         <v>36</v>
@@ -8149,7 +8149,7 @@
         <v>1.07190065881405</v>
       </c>
       <c r="G241" t="n">
-        <v>0.9999169835000613</v>
+        <v>0.9999169835000614</v>
       </c>
       <c r="H241" t="n">
         <v>40</v>
@@ -8370,7 +8370,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>0.7590923569939106</v>
+        <v>0.7590923569939105</v>
       </c>
       <c r="G248" t="n">
         <v>0.8011621772811299</v>
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>0.937636078009379</v>
+        <v>0.9376360780093791</v>
       </c>
       <c r="G295" t="n">
         <v>0.9403742266244219</v>
@@ -10610,7 +10610,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>0.8613467151272155</v>
+        <v>0.8613467151272156</v>
       </c>
       <c r="G318" t="n">
         <v>0.7538547646709379</v>
@@ -10741,7 +10741,7 @@
         <v>0.8815829962607634</v>
       </c>
       <c r="G322" t="n">
-        <v>0.6940510558389963</v>
+        <v>0.6940510558389964</v>
       </c>
       <c r="H322" t="n">
         <v>28</v>
@@ -11221,7 +11221,7 @@
         <v>1.066609580132633</v>
       </c>
       <c r="G337" t="n">
-        <v>0.8417150638949535</v>
+        <v>0.8417150638949534</v>
       </c>
       <c r="H337" t="n">
         <v>34</v>
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>0.6916133714831448</v>
+        <v>0.6916133714831447</v>
       </c>
       <c r="G347" t="n">
         <v>0.9068990744019041</v>
@@ -11730,7 +11730,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>0.9887391829579322</v>
+        <v>0.9887391829579321</v>
       </c>
       <c r="G353" t="n">
         <v>0.9453784756180241</v>
@@ -11794,7 +11794,7 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>0.8999879099516552</v>
+        <v>0.8999879099516553</v>
       </c>
       <c r="G355" t="n">
         <v>0.8160822184546698</v>
@@ -12341,7 +12341,7 @@
         <v>0.9360458517816321</v>
       </c>
       <c r="G372" t="n">
-        <v>0.7310008855137438</v>
+        <v>0.7310008855137436</v>
       </c>
       <c r="H372" t="n">
         <v>29</v>
@@ -13298,7 +13298,7 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0.7889287966052484</v>
+        <v>0.7889287966052483</v>
       </c>
       <c r="G402" t="n">
         <v>0.8342200619038115</v>
@@ -13493,7 +13493,7 @@
         <v>0.9223346361367961</v>
       </c>
       <c r="G408" t="n">
-        <v>0.809949313936263</v>
+        <v>0.8099493139362629</v>
       </c>
       <c r="H408" t="n">
         <v>32</v>
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0.7521632141795426</v>
+        <v>0.7521632141795425</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14610,7 +14610,7 @@
         </is>
       </c>
       <c r="F443" t="n">
-        <v>0.9974560351299646</v>
+        <v>0.9974560351299647</v>
       </c>
       <c r="G443" t="n">
         <v>0.8822724183491806</v>
@@ -18034,7 +18034,7 @@
         </is>
       </c>
       <c r="F550" t="n">
-        <v>0.4123288439429609</v>
+        <v>0.412328843942961</v>
       </c>
       <c r="G550" t="n">
         <v>0.6887676617346571</v>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="F556" t="n">
-        <v>0.6930184634801585</v>
+        <v>0.6930184634801584</v>
       </c>
       <c r="G556" t="n">
         <v>0.667459595229986</v>
@@ -18322,7 +18322,7 @@
         </is>
       </c>
       <c r="F559" t="n">
-        <v>0.8787662810775119</v>
+        <v>0.8787662810775116</v>
       </c>
       <c r="G559" t="n">
         <v>0.6573838954641266</v>
@@ -18482,7 +18482,7 @@
         </is>
       </c>
       <c r="F564" t="n">
-        <v>0.5356030429118738</v>
+        <v>0.5356030429118737</v>
       </c>
       <c r="G564" t="n">
         <v>0.6622726962726315</v>
@@ -20722,10 +20722,10 @@
         </is>
       </c>
       <c r="F634" t="n">
-        <v>0.4134040108515527</v>
+        <v>0.4134040108515528</v>
       </c>
       <c r="G634" t="n">
-        <v>0.8019561546542615</v>
+        <v>0.8019561546542614</v>
       </c>
       <c r="H634" t="n">
         <v>32</v>
@@ -21138,7 +21138,7 @@
         </is>
       </c>
       <c r="F647" t="n">
-        <v>0.9731735318171606</v>
+        <v>0.9731735318171607</v>
       </c>
       <c r="G647" t="n">
         <v>0.6605838480636008</v>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="F681" t="n">
-        <v>0.3759902280455466</v>
+        <v>0.3759902280455467</v>
       </c>
       <c r="G681" t="n">
         <v>0.7012591457487127</v>
@@ -22581,7 +22581,7 @@
         <v>0.8403331875170841</v>
       </c>
       <c r="G692" t="n">
-        <v>0.7669864634422635</v>
+        <v>0.7669864634422634</v>
       </c>
       <c r="H692" t="n">
         <v>31</v>
@@ -23090,7 +23090,7 @@
         </is>
       </c>
       <c r="F708" t="n">
-        <v>0.6671384246659134</v>
+        <v>0.6671384246659136</v>
       </c>
       <c r="G708" t="n">
         <v>0.6523708545642791</v>
@@ -23794,7 +23794,7 @@
         </is>
       </c>
       <c r="F730" t="n">
-        <v>0.8052503927065549</v>
+        <v>0.8052503927065547</v>
       </c>
       <c r="G730" t="n">
         <v>0.683451967839198</v>
@@ -23858,7 +23858,7 @@
         </is>
       </c>
       <c r="F732" t="n">
-        <v>0.6385924004929631</v>
+        <v>0.638592400492963</v>
       </c>
       <c r="G732" t="n">
         <v>0.6640990488969629</v>
@@ -23925,7 +23925,7 @@
         <v>1.365916099637253</v>
       </c>
       <c r="G734" t="n">
-        <v>0.7713600168737136</v>
+        <v>0.7713600168737135</v>
       </c>
       <c r="H734" t="n">
         <v>31</v>
@@ -26130,7 +26130,7 @@
         </is>
       </c>
       <c r="F803" t="n">
-        <v>0.8272585287628561</v>
+        <v>0.827258528762856</v>
       </c>
       <c r="G803" t="n">
         <v>0.6994578329383775</v>
@@ -26802,7 +26802,7 @@
         </is>
       </c>
       <c r="F824" t="n">
-        <v>0.874267891477984</v>
+        <v>0.8742678914779841</v>
       </c>
       <c r="G824" t="n">
         <v>0.6912775810429207</v>
@@ -28661,7 +28661,7 @@
         <v>0.566192848225152</v>
       </c>
       <c r="G882" t="n">
-        <v>0.6879389022706582</v>
+        <v>0.6879389022706581</v>
       </c>
       <c r="H882" t="n">
         <v>28</v>
@@ -29429,7 +29429,7 @@
         <v>0.6982589820633462</v>
       </c>
       <c r="G906" t="n">
-        <v>0.7250721478453755</v>
+        <v>0.7250721478453754</v>
       </c>
       <c r="H906" t="n">
         <v>29</v>
@@ -29938,7 +29938,7 @@
         </is>
       </c>
       <c r="F922" t="n">
-        <v>0.6197077945952092</v>
+        <v>0.6197077945952093</v>
       </c>
       <c r="G922" t="n">
         <v>0.7453506521155256</v>
@@ -30162,10 +30162,10 @@
         </is>
       </c>
       <c r="F929" t="n">
-        <v>0.2359302070500019</v>
+        <v>0.2359302070500018</v>
       </c>
       <c r="G929" t="n">
-        <v>0.8957139178849596</v>
+        <v>0.8957139178849597</v>
       </c>
       <c r="H929" t="n">
         <v>36</v>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="F946" t="n">
-        <v>0.7381240445305716</v>
+        <v>0.7381240445305715</v>
       </c>
       <c r="G946" t="n">
         <v>0.6607764933467161</v>
@@ -31602,7 +31602,7 @@
         </is>
       </c>
       <c r="F974" t="n">
-        <v>0.5836091940544028</v>
+        <v>0.5836091940544029</v>
       </c>
       <c r="G974" t="n">
         <v>0.8475667714307723</v>
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="F975" t="n">
-        <v>0.8149988206441107</v>
+        <v>0.8149988206441108</v>
       </c>
       <c r="G975" t="n">
         <v>0.8601441113556593</v>
@@ -34258,7 +34258,7 @@
         </is>
       </c>
       <c r="F1057" t="n">
-        <v>0.2878960109502616</v>
+        <v>0.2878960109502615</v>
       </c>
       <c r="G1057" t="n">
         <v>0.7410565677507205</v>
@@ -34898,7 +34898,7 @@
         </is>
       </c>
       <c r="F1077" t="n">
-        <v>0.4285990871726335</v>
+        <v>0.4285990871726336</v>
       </c>
       <c r="G1077" t="n">
         <v>0.6678908026277673</v>
